--- a/7_figure/comp-referencement.xlsx
+++ b/7_figure/comp-referencement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>P40</t>
   </si>
@@ -107,9 +107,6 @@
     <t>?? 25min au MS60 pour lever les cibles</t>
   </si>
   <si>
-    <t>Remarques</t>
-  </si>
-  <si>
     <t xml:space="preserve">40s </t>
   </si>
   <si>
@@ -140,15 +137,9 @@
     <t>2h20</t>
   </si>
   <si>
-    <t>40min (15min pour l'extérieur) + 50min au MS60 pour lever les cibles</t>
-  </si>
-  <si>
     <t>2h</t>
   </si>
   <si>
-    <t>La durée de travail ne prend pas en compte un calcul au bureau des coordonnées des cibles levées au MS60</t>
-  </si>
-  <si>
     <t>11min + 15min d'import</t>
   </si>
   <si>
@@ -158,9 +149,6 @@
     <t>1h45</t>
   </si>
   <si>
-    <t>20min + 50min au MS60</t>
-  </si>
-  <si>
     <t>Couverture</t>
   </si>
   <si>
@@ -168,6 +156,52 @@
   </si>
   <si>
     <t>Nbre de scan / photo</t>
+  </si>
+  <si>
+    <t>40min  + 50min au MS60 pour lever les cibles</t>
+  </si>
+  <si>
+    <t>Aérotriangulation + sur nuage</t>
+  </si>
+  <si>
+    <t>Traitements</t>
+  </si>
+  <si>
+    <t>Canon EOS 5DS R + Faro</t>
+  </si>
+  <si>
+    <t>&gt;4h</t>
+  </si>
+  <si>
+    <t>Traitement 9</t>
+  </si>
+  <si>
+    <t>Durée nuage sur photo cylcone</t>
+  </si>
+  <si>
+    <t>Durée nauge sur photo cylcone laison</t>
+  </si>
+  <si>
+    <t>6min</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>17min aéro + 10min cyclone + 15min d'import</t>
+  </si>
+  <si>
+    <t>1h25</t>
+  </si>
+  <si>
+    <t>15min de photos + 30min de Faro +   20min au MS60 pour les cibles</t>
+  </si>
+  <si>
+    <t>50 photos
+3 scans</t>
+  </si>
+  <si>
+    <t>1H45</t>
   </si>
 </sst>
 </file>
@@ -219,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -228,7 +262,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="medium">
@@ -252,19 +286,34 @@
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -276,88 +325,13 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -542,6 +516,82 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -551,42 +601,47 @@
       <top style="thick">
         <color auto="1"/>
       </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -594,55 +649,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -651,56 +700,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,321 +1073,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:Q22"/>
+  <dimension ref="A5:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41">
+        <v>1</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="21">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
+        <v>3</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42">
+        <v>2</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
+        <v>4</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43">
+        <v>6</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="32">
+        <v>176</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="54"/>
+    </row>
+    <row r="13" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="45">
+        <v>8</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48">
+        <v>52</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44">
+        <v>10</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="40" t="s">
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>5</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D19" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D20" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="L21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>3</v>
-      </c>
-      <c r="E8" s="9">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="31">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
-        <v>-2</v>
-      </c>
-      <c r="D9" s="9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="9">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>3</v>
-      </c>
-      <c r="E10" s="9">
-        <v>5</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="26">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="14">
-        <v>176</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="39"/>
-    </row>
-    <row r="13" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19">
-        <v>52</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="28" t="s">
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="I22">
         <v>15</v>
       </c>
-      <c r="H13" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="L22" t="s">
         <v>29</v>
       </c>
-      <c r="Q20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L21" t="s">
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f>SUM(I17:I22)</f>
+        <v>107</v>
+      </c>
+      <c r="L23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L22" t="s">
-        <v>31</v>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f>I23-60</f>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/7_figure/comp-referencement.xlsx
+++ b/7_figure/comp-referencement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>P40</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Centre de la courbe de Gauss appr. [mm]</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>1h + 50min au MS60 pour lever les cibles</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>12 (extérieur)</t>
   </si>
   <si>
-    <t>?? 25min au MS60 pour lever les cibles</t>
-  </si>
-  <si>
     <t xml:space="preserve">40s </t>
   </si>
   <si>
@@ -192,9 +186,6 @@
   </si>
   <si>
     <t>1h25</t>
-  </si>
-  <si>
-    <t>15min de photos + 30min de Faro +   20min au MS60 pour les cibles</t>
   </si>
   <si>
     <t>50 photos
@@ -202,6 +193,24 @@
   </si>
   <si>
     <t>1H45</t>
+  </si>
+  <si>
+    <t>Extérieur/Intérieur</t>
+  </si>
+  <si>
+    <t>50min + 25min au MS60 pour lever les cibles</t>
+  </si>
+  <si>
+    <t>25min + 20min au MS60 pour obtenir un nuage</t>
+  </si>
+  <si>
+    <t>55min</t>
+  </si>
+  <si>
+    <t>1h22</t>
+  </si>
+  <si>
+    <t>15min de photos + 30min de Faro +  20min au MS60 pour les cibles</t>
   </si>
 </sst>
 </file>
@@ -253,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -617,6 +626,21 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -649,83 +673,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -739,58 +742,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1075,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1111,7 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
@@ -1096,10 +1120,10 @@
   <sheetData>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1112,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>9</v>
@@ -1120,21 +1144,21 @@
       <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="16" t="s">
+      <c r="I6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="53" t="s">
-        <v>41</v>
+      <c r="K6" s="44" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+      <c r="A7" s="33">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1150,24 +1174,26 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="21">
+        <v>57</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="19">
         <v>0</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
+      <c r="A8" s="34">
         <v>3</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1183,26 +1209,26 @@
         <v>5</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="22">
+        <v>22</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="20">
         <v>0</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42">
+      <c r="K8" s="45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34">
         <v>2</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1217,25 +1243,27 @@
       <c r="F9" s="7">
         <v>2</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="26"/>
+      <c r="G9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="J9" s="8">
         <v>0</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+      <c r="A10" s="34">
         <v>4</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1251,137 +1279,141 @@
         <v>5</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="48">
+        <v>6</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="53">
+        <v>176</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="18">
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="51"/>
+    </row>
+    <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36">
+        <v>8</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="38">
         <v>0</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43">
-        <v>6</v>
-      </c>
-      <c r="B11" s="39" t="s">
+      <c r="E13" s="38">
+        <v>25</v>
+      </c>
+      <c r="F13" s="39">
+        <v>52</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35">
         <v>10</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="32">
-        <v>176</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="54"/>
-    </row>
-    <row r="13" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45">
-        <v>8</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48">
+      <c r="B14" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>5</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="28" t="s">
+      <c r="I14" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44">
-        <v>10</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2</v>
-      </c>
-      <c r="E14" s="11">
-        <v>5</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="J14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="56" t="s">
         <v>56</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1403,29 +1435,29 @@
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I18">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
         <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
       </c>
       <c r="I19">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
         <v>51</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
       </c>
       <c r="I20">
         <v>17</v>
@@ -1436,13 +1468,13 @@
         <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.25">
@@ -1450,7 +1482,7 @@
         <v>15</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.25">
@@ -1459,7 +1491,7 @@
         <v>107</v>
       </c>
       <c r="L23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.25">
